--- a/templates/Excel/ST3/ST3_Line_setup.xlsx
+++ b/templates/Excel/ST3/ST3_Line_setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,85 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VP_setup</t>
+          <t>Oil Spray Pressure_setup</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VP_Re_Setup</t>
+          <t>Oil Spray Pressure_Re_Setup</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LT_setup</t>
+          <t>Pressure1_setup</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LT_Re_setup</t>
+          <t>Pressure1_Re_setup</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics1_setup</t>
+          <t>Pressure2_setup</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics1_Re_setup</t>
+          <t>Pressure2_Re_setup</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics2_setup</t>
+          <t>Oil presence in the cap handle_setup</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics2_Re_setup</t>
+          <t>Oil presence in the cap handle_Re_setup</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics3_setup</t>
+          <t>Presence of  Compression Spring into Cap Handle Presence of compression spring and stem in cap_setup</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics3_Re_setup</t>
+          <t>Presence of  Compression Spring into Cap Handle Presence of compression spring and stem in cap_Re_setup</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics4_setup</t>
+          <t>Presence of  Stop Ring with correct  orientation into threaded ferrule Assembly_setup</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics4_Re_setup</t>
+          <t>Presence of  Stop Ring with correct  orientation into threaded ferrule Assembly_Re_setup</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics5_setup</t>
+          <t>resence of Cap Handle  into threaded ferrule Assembly_setup</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>product-characteristics5_Re_setup</t>
+          <t>resence of Cap Handle  into threaded ferrule Assembly_Re_setup</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Side cylinder clamping to be ensured_setup</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Side cylinder clamping to be ensured_Re_setup</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>QA-Sign</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Engg-Sign</t>
         </is>
@@ -533,34 +543,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-04T13:11</t>
+          <t>2025-02-06T13:04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIFT_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64</v>
-      </c>
-      <c r="E2" t="n">
-        <v>64</v>
-      </c>
-      <c r="F2" t="n">
-        <v>64</v>
+          <t>SHIFT_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -583,327 +601,49 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>46</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64</v>
-      </c>
-      <c r="P2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>64</v>
-      </c>
-      <c r="R2" t="n">
-        <v>64</v>
-      </c>
-      <c r="S2" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-01-29T14:48</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SHIFT_1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>654</v>
-      </c>
-      <c r="D3" t="n">
-        <v>645</v>
-      </c>
-      <c r="E3" t="n">
-        <v>654</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>64</v>
-      </c>
-      <c r="N3" t="n">
-        <v>64</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>46</v>
-      </c>
-      <c r="R3" t="n">
-        <v>46</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-01-29T14:48</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SHIFT_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>654</v>
-      </c>
-      <c r="D4" t="n">
-        <v>645</v>
-      </c>
-      <c r="E4" t="n">
-        <v>654</v>
-      </c>
-      <c r="F4" t="n">
-        <v>64</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>64</v>
-      </c>
-      <c r="N4" t="n">
-        <v>64</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>46</v>
-      </c>
-      <c r="R4" t="n">
-        <v>46</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01-29T14:48</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SHIFT_1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>654</v>
-      </c>
-      <c r="D5" t="n">
-        <v>645</v>
-      </c>
-      <c r="E5" t="n">
-        <v>654</v>
-      </c>
-      <c r="F5" t="n">
-        <v>64</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>64</v>
-      </c>
-      <c r="N5" t="n">
-        <v>64</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>46</v>
-      </c>
-      <c r="R5" t="n">
-        <v>46</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-30T14:53</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3512</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>11321</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>21</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>222</t>
         </is>
       </c>
     </row>
